--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/120.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/120.xlsx
@@ -479,13 +479,13 @@
         <v>-9.356851648780061</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.83571269552405</v>
+        <v>-13.85139727432844</v>
       </c>
       <c r="F2" t="n">
-        <v>4.132242278277857</v>
+        <v>4.148110149322028</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.607435662063041</v>
+        <v>-9.536946703563187</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.757185231632127</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.41600283437787</v>
+        <v>-14.43611261154277</v>
       </c>
       <c r="F3" t="n">
-        <v>4.344756538004754</v>
+        <v>4.369474805769933</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.277431076634493</v>
+        <v>-9.206536256746547</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.046243491744926</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.04312414049655</v>
+        <v>-15.05747330441108</v>
       </c>
       <c r="F4" t="n">
-        <v>4.411160698017989</v>
+        <v>4.434648289316045</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.238887337068451</v>
+        <v>-9.184606649486655</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.297809415215196</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.66002035809584</v>
+        <v>-15.66788883210372</v>
       </c>
       <c r="F5" t="n">
-        <v>4.389951167414393</v>
+        <v>4.425143277452952</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.88730663655674</v>
+        <v>-8.844154406390411</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.525991289801182</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.30433185784571</v>
+        <v>-16.33139364781956</v>
       </c>
       <c r="F6" t="n">
-        <v>4.379006002238709</v>
+        <v>4.411082144200939</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.488672199631864</v>
+        <v>-8.424205700439206</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.773932133954846</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.86333391227889</v>
+        <v>-16.86383141978687</v>
       </c>
       <c r="F7" t="n">
-        <v>4.616212345125103</v>
+        <v>4.654022915732007</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.467069899943017</v>
+        <v>-8.403519861949277</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.055767110891065</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.84750850149712</v>
+        <v>-17.86499981809366</v>
       </c>
       <c r="F8" t="n">
-        <v>4.779054407870492</v>
+        <v>4.804741506045958</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.629227979586757</v>
+        <v>-7.583850057937334</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.404721332003187</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.48001074408375</v>
+        <v>-18.48933246370705</v>
       </c>
       <c r="F9" t="n">
-        <v>4.732393440542579</v>
+        <v>4.779263884715959</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.224518714143321</v>
+        <v>-7.17771373148415</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.828520457998946</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.21412234902501</v>
+        <v>-19.23386554171033</v>
       </c>
       <c r="F10" t="n">
-        <v>4.877613263663005</v>
+        <v>4.91922060209401</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.363883094539616</v>
+        <v>-6.337868688793106</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.341056770410239</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.07117067765008</v>
+        <v>-20.10428111153681</v>
       </c>
       <c r="F11" t="n">
-        <v>5.064728455876954</v>
+        <v>5.09913502774501</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.126519644019123</v>
+        <v>-6.080578753347505</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.94751678881833</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.03057462989177</v>
+        <v>-21.05437643645803</v>
       </c>
       <c r="F12" t="n">
-        <v>5.403792914871976</v>
+        <v>5.454826711349024</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.50930921115163</v>
+        <v>-5.47721997688656</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.642443305381311</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.7046842109094</v>
+        <v>-21.72087938952462</v>
       </c>
       <c r="F13" t="n">
-        <v>5.536444127264344</v>
+        <v>5.586744754782256</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.093392934475676</v>
+        <v>-5.058475762796793</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.430652340707327</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.50653539075376</v>
+        <v>-22.53188208905534</v>
       </c>
       <c r="F14" t="n">
-        <v>5.833770324799943</v>
+        <v>5.871842741463682</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.152082544761256</v>
+        <v>-4.119967125890502</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.297786980043203</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.50758595833497</v>
+        <v>-23.53170198016943</v>
       </c>
       <c r="F15" t="n">
-        <v>6.049348183391805</v>
+        <v>6.083833309076911</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.717549013444367</v>
+        <v>-3.69382576069516</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.2400017065909</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.16555272994876</v>
+        <v>-24.19049356686225</v>
       </c>
       <c r="F16" t="n">
-        <v>6.332953647549274</v>
+        <v>6.377964984719129</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.498122017817038</v>
+        <v>-3.486574606710636</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.244295667685134</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.03611231510649</v>
+        <v>-25.0690918259648</v>
       </c>
       <c r="F17" t="n">
-        <v>6.679375980741346</v>
+        <v>6.732059407376452</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.379819969339202</v>
+        <v>-3.37882495432323</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.301947232323813</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.76895396667211</v>
+        <v>-25.80345218466006</v>
       </c>
       <c r="F18" t="n">
-        <v>6.573066481666531</v>
+        <v>6.600193733154588</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.006571507624433</v>
+        <v>-2.998349541439829</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.407286021946659</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.40870934503305</v>
+        <v>-26.43581041191543</v>
       </c>
       <c r="F19" t="n">
-        <v>6.690635361185231</v>
+        <v>6.713258860495734</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.599793658332004</v>
+        <v>-2.612781222750997</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.547769321298401</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.91057658986494</v>
+        <v>-26.94538902312109</v>
       </c>
       <c r="F20" t="n">
-        <v>6.90422318974515</v>
+        <v>6.937556192780185</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.366659021629388</v>
+        <v>-2.364590437780396</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.717492539735478</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.26863798028331</v>
+        <v>-27.29772907719762</v>
       </c>
       <c r="F21" t="n">
-        <v>6.869397664186159</v>
+        <v>6.895215685390043</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.146171549471879</v>
+        <v>-2.157718960578282</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.899117926553611</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.78879517218508</v>
+        <v>-27.8095726567949</v>
       </c>
       <c r="F22" t="n">
-        <v>6.923416505711121</v>
+        <v>6.930564903062703</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.175144815660619</v>
+        <v>-2.195071300585727</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.076890135584291</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.00627141468899</v>
+        <v>-28.02753331450396</v>
       </c>
       <c r="F23" t="n">
-        <v>6.936665916186947</v>
+        <v>6.957796892973493</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.25608143182817</v>
+        <v>-2.265219859211695</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.230059830446508</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.41475126335085</v>
+        <v>-28.43920768505919</v>
       </c>
       <c r="F24" t="n">
-        <v>7.149651498816147</v>
+        <v>7.167666507526362</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.570375253846646</v>
+        <v>-2.584357833281609</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.338226268112088</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.32047359058758</v>
+        <v>-28.33109144819222</v>
       </c>
       <c r="F25" t="n">
-        <v>7.114956896285573</v>
+        <v>7.144938269793125</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.466396184677658</v>
+        <v>-2.480614425563772</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.389940329690667</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.78958389370947</v>
+        <v>-28.81853097529252</v>
       </c>
       <c r="F26" t="n">
-        <v>7.133862181589025</v>
+        <v>7.147740022601255</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.558932581162977</v>
+        <v>-2.567508039524308</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.375736584152776</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.65660537374605</v>
+        <v>-28.67354681362325</v>
       </c>
       <c r="F27" t="n">
-        <v>7.318411282445996</v>
+        <v>7.334279153490168</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.633886014931859</v>
+        <v>-2.648169717332182</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.298480769639351</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.90022694502489</v>
+        <v>-28.9166708773941</v>
       </c>
       <c r="F28" t="n">
-        <v>7.130248706004709</v>
+        <v>7.138025533892694</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.788139527013076</v>
+        <v>-2.810527364872427</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.164239887529508</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.25065552288653</v>
+        <v>-29.26529271746358</v>
       </c>
       <c r="F29" t="n">
-        <v>7.194872312831468</v>
+        <v>7.19002816078003</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.906716513850589</v>
+        <v>-2.918198463442782</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.985991936033971</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.94244962168946</v>
+        <v>-28.96418284440672</v>
       </c>
       <c r="F30" t="n">
-        <v>7.036298340812483</v>
+        <v>7.032763419045216</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.886580552080014</v>
+        <v>-2.899947793281416</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.78139064165968</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.85309465479468</v>
+        <v>-28.88011716786</v>
       </c>
       <c r="F31" t="n">
-        <v>6.985814421054787</v>
+        <v>6.983326883514859</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.791098387455305</v>
+        <v>-2.812949440898147</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.565883931751593</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.72806316265619</v>
+        <v>-28.76381824171695</v>
       </c>
       <c r="F32" t="n">
-        <v>7.067746052238308</v>
+        <v>7.077041587255934</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.3059270121005</v>
+        <v>-3.32405985153629</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.358605068793822</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.62869258408749</v>
+        <v>-28.65427494384022</v>
       </c>
       <c r="F33" t="n">
-        <v>7.305659379478155</v>
+        <v>7.303407503389378</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.606356085409588</v>
+        <v>-3.631427845351493</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.170838091248533</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.23076513151607</v>
+        <v>-28.25456693808233</v>
       </c>
       <c r="F34" t="n">
-        <v>7.264942317640386</v>
+        <v>7.262795179974344</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.813829808542421</v>
+        <v>-3.828702664570622</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.011694213650255</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.12636710865615</v>
+        <v>-28.15685908197453</v>
       </c>
       <c r="F35" t="n">
-        <v>7.20602695485262</v>
+        <v>7.213253906021252</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.075518757742842</v>
+        <v>-4.08400256998428</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.884961150257361</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.81859325345285</v>
+        <v>-27.85230593327029</v>
       </c>
       <c r="F36" t="n">
-        <v>7.37290144687326</v>
+        <v>7.387381533816209</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.280203820370387</v>
+        <v>-4.292968815641069</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.786018349537045</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.38538204472298</v>
+        <v>-27.40864706687272</v>
       </c>
       <c r="F37" t="n">
-        <v>7.082959308140394</v>
+        <v>7.090474289971545</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.669686737608896</v>
+        <v>-4.688827684363499</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.710860566163071</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.18581607250655</v>
+        <v>-27.21511664626633</v>
       </c>
       <c r="F38" t="n">
-        <v>7.45451886278858</v>
+        <v>7.468370519195126</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.683184901838715</v>
+        <v>-4.702077094839326</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.646120542163986</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.85324539572102</v>
+        <v>-26.89126544317339</v>
       </c>
       <c r="F39" t="n">
-        <v>7.345407610905635</v>
+        <v>7.367455048891101</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.849234578780327</v>
+        <v>-4.871818801182305</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.578752564871056</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.50001506505125</v>
+        <v>-26.53571777490064</v>
       </c>
       <c r="F40" t="n">
-        <v>7.449020095595055</v>
+        <v>7.476383008534262</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.934242901131654</v>
+        <v>-4.961789106310646</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.494949621407308</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.21990524575252</v>
+        <v>-26.25292403351936</v>
       </c>
       <c r="F41" t="n">
-        <v>7.55229218041059</v>
+        <v>7.580519185337351</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.305514425117322</v>
+        <v>-5.334252029854911</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.381228332593099</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.50077123526219</v>
+        <v>-25.54376635779442</v>
       </c>
       <c r="F42" t="n">
-        <v>7.523750960215628</v>
+        <v>7.548102643501238</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.384578841978506</v>
+        <v>-5.411601355043828</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.231521813605679</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.00855301762466</v>
+        <v>-25.04896895649707</v>
       </c>
       <c r="F43" t="n">
-        <v>7.473974024811385</v>
+        <v>7.488480296360017</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.412688016179692</v>
+        <v>-5.440901928803611</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.041568586751972</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.72088893958625</v>
+        <v>-24.75889589473579</v>
       </c>
       <c r="F44" t="n">
-        <v>7.66886604491332</v>
+        <v>7.701492063594901</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.455918800163071</v>
+        <v>-5.480571606414042</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.8148034615977894</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.17822607909955</v>
+        <v>-24.21940137153678</v>
       </c>
       <c r="F45" t="n">
-        <v>7.597434440608862</v>
+        <v>7.631683904842817</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.511849117902925</v>
+        <v>-5.531814879736557</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.5589652415500721</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.8020973107596</v>
+        <v>-23.84325951089399</v>
       </c>
       <c r="F46" t="n">
-        <v>7.490915464688578</v>
+        <v>7.521708560972319</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.409126909806742</v>
+        <v>-5.432326470442281</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.284071923220977</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.32941280896192</v>
+        <v>-23.37125580884408</v>
       </c>
       <c r="F47" t="n">
-        <v>7.673893489204542</v>
+        <v>7.702513263216555</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.546006936016989</v>
+        <v>-5.567727066431412</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.004393209978848586</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.58231363960167</v>
+        <v>-22.62724642295447</v>
       </c>
       <c r="F48" t="n">
-        <v>7.693872343341016</v>
+        <v>7.713327505363821</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.803113579222805</v>
+        <v>-5.831838091657552</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2683392498247182</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.28481724212913</v>
+        <v>-22.32846697980344</v>
       </c>
       <c r="F49" t="n">
-        <v>7.753180475214035</v>
+        <v>7.771719176037919</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.638778993953459</v>
+        <v>-5.683240454403961</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5209719311427552</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.80663397313792</v>
+        <v>-21.85385790948803</v>
       </c>
       <c r="F50" t="n">
-        <v>7.676066811476269</v>
+        <v>7.692746405296628</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.690781620840795</v>
+        <v>-5.724101531572988</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7439655758336851</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.2507871636896</v>
+        <v>-21.29218502527514</v>
       </c>
       <c r="F51" t="n">
-        <v>7.747786446443244</v>
+        <v>7.767896223608135</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.806687777898596</v>
+        <v>-5.84115981128086</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.9302933016058207</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.9076509985108</v>
+        <v>-20.95583067296835</v>
       </c>
       <c r="F52" t="n">
-        <v>7.476461562351313</v>
+        <v>7.504112505953039</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.936681252814094</v>
+        <v>-5.966662626321647</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.074988498360168</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.17835736101529</v>
+        <v>-20.22774152733428</v>
       </c>
       <c r="F53" t="n">
-        <v>7.646923345350586</v>
+        <v>7.674652842769362</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.977057914777977</v>
+        <v>-6.010430194721537</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.177075144726482</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.26173905446037</v>
+        <v>-19.30180150115605</v>
       </c>
       <c r="F54" t="n">
-        <v>7.56685082117059</v>
+        <v>7.583137645905697</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.005769334909883</v>
+        <v>-6.046447119839126</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.23600369078431</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.87281910624406</v>
+        <v>-18.91284227603121</v>
       </c>
       <c r="F55" t="n">
-        <v>7.522415545325772</v>
+        <v>7.547238551513684</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.453094046103137</v>
+        <v>-6.491389031915186</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.254426013908167</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.75459561158327</v>
+        <v>-18.78307137026402</v>
       </c>
       <c r="F56" t="n">
-        <v>7.255882444073912</v>
+        <v>7.285863817581465</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.337868688793106</v>
+        <v>-6.384726040663644</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.235426280114996</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.45427127669691</v>
+        <v>-18.4875257259149</v>
       </c>
       <c r="F57" t="n">
-        <v>7.266801424643912</v>
+        <v>7.295709229318443</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.244271815777607</v>
+        <v>-6.286520677047856</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.183192332218203</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.86306215727309</v>
+        <v>-17.89783531362071</v>
       </c>
       <c r="F58" t="n">
-        <v>7.010454135002916</v>
+        <v>7.045410583590324</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.433350853417815</v>
+        <v>-6.459469997587058</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.101058721387972</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.36296237332484</v>
+        <v>-17.38245681225617</v>
       </c>
       <c r="F59" t="n">
-        <v>7.085342107257588</v>
+        <v>7.10909154461248</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.544792535206587</v>
+        <v>-6.568685987892737</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.992473944665075</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.09137564317607</v>
+        <v>-17.11409078860646</v>
       </c>
       <c r="F60" t="n">
-        <v>7.22817913126082</v>
+        <v>7.243261464134489</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.907946831430384</v>
+        <v>-6.933529191183117</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.8598017080551554</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.73842025086598</v>
+        <v>-16.75017713881785</v>
       </c>
       <c r="F61" t="n">
-        <v>7.009354381564211</v>
+        <v>7.032213542325864</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.699163878013379</v>
+        <v>-6.737288663888485</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.7056817822449426</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.33287307804067</v>
+        <v>-16.35018110239743</v>
       </c>
       <c r="F62" t="n">
-        <v>7.008464104970973</v>
+        <v>7.031899327057663</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.686686913405214</v>
+        <v>-6.727705098208341</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.5329356193564122</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.81923585295407</v>
+        <v>-15.84451708974145</v>
       </c>
       <c r="F63" t="n">
-        <v>6.90998380299551</v>
+        <v>6.931350441233207</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.6984176167514</v>
+        <v>-6.731698250575068</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3452205027318576</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.61866177341883</v>
+        <v>-15.63240869140264</v>
       </c>
       <c r="F64" t="n">
-        <v>6.722816241570194</v>
+        <v>6.737505805358611</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.453905768879324</v>
+        <v>-6.477759944656949</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1485841272657363</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.37424157166665</v>
+        <v>-15.39364436447809</v>
       </c>
       <c r="F65" t="n">
-        <v>6.678826104021994</v>
+        <v>6.704487017591777</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.538194014574357</v>
+        <v>-6.570558187199103</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.05128529792223926</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.984025485469</v>
+        <v>-14.99798188029828</v>
       </c>
       <c r="F66" t="n">
-        <v>6.6875193931089</v>
+        <v>6.71027381544782</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.62362129061662</v>
+        <v>-6.65032958841374</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2458869817346637</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.86836808216519</v>
+        <v>-14.88447161466052</v>
       </c>
       <c r="F67" t="n">
-        <v>6.640413287484369</v>
+        <v>6.663534294302858</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.583388643983995</v>
+        <v>-6.614312663296152</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4280406481517672</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.49340452877816</v>
+        <v>-14.51291206001233</v>
       </c>
       <c r="F68" t="n">
-        <v>6.353639486039202</v>
+        <v>6.374220586106396</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.435694375626483</v>
+        <v>-6.465387718471518</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5888332525880263</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.65474097669675</v>
+        <v>-14.67825475260049</v>
       </c>
       <c r="F69" t="n">
-        <v>6.338033461051864</v>
+        <v>6.357017300172367</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.339714703493789</v>
+        <v>-6.373047706528824</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7205433459593555</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.52050559566053</v>
+        <v>-14.54320764878809</v>
       </c>
       <c r="F70" t="n">
-        <v>6.286161757192946</v>
+        <v>6.303993473663376</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.431805961682491</v>
+        <v>-6.465178241626051</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8150965729075085</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.49995068019902</v>
+        <v>-14.52576870140291</v>
       </c>
       <c r="F71" t="n">
-        <v>6.388491196203876</v>
+        <v>6.401321652988768</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.276819280642138</v>
+        <v>-6.312521990491525</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8651310983843793</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.46142003293582</v>
+        <v>-14.47461707420028</v>
       </c>
       <c r="F72" t="n">
-        <v>6.003184723571879</v>
+        <v>6.01661742628749</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.381426780347529</v>
+        <v>-6.401117603821485</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8652749144817421</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.68857148723977</v>
+        <v>-14.71704724592052</v>
       </c>
       <c r="F73" t="n">
-        <v>5.959980124194183</v>
+        <v>5.978361717383966</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.093343748618189</v>
+        <v>-6.120759030768763</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8098694876755302</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.83692037073937</v>
+        <v>-14.86078763881983</v>
       </c>
       <c r="F74" t="n">
-        <v>5.885877690110013</v>
+        <v>5.908213158757998</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.86527583311532</v>
+        <v>-5.884037103087514</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6980448675906769</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.10100521135982</v>
+        <v>-15.12801463212231</v>
       </c>
       <c r="F75" t="n">
-        <v>5.606435578256212</v>
+        <v>5.630132646399736</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.669401890300256</v>
+        <v>-5.687927498821299</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5264700799840899</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.20758964879432</v>
+        <v>-15.24272938962151</v>
       </c>
       <c r="F76" t="n">
-        <v>5.628666308481463</v>
+        <v>5.648252393532685</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.403981634789944</v>
+        <v>-5.430218609684763</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2973209609730338</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.41245800366165</v>
+        <v>-15.44403663811589</v>
       </c>
       <c r="F77" t="n">
-        <v>5.565927993263911</v>
+        <v>5.587844508220961</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.386490318193398</v>
+        <v>-5.417008476117461</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.01104483826057814</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.82304571308102</v>
+        <v>-15.85255576368627</v>
       </c>
       <c r="F78" t="n">
-        <v>5.363442437513776</v>
+        <v>5.399210608877372</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.910899325164856</v>
+        <v>-4.937751638293237</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3280255443904638</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.06767539167867</v>
+        <v>-16.10019667193752</v>
       </c>
       <c r="F79" t="n">
-        <v>4.956716957432714</v>
+        <v>4.986488854094799</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.010845965058594</v>
+        <v>-5.041756892067909</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.7118729547517441</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.68281724069717</v>
+        <v>-16.70466829414001</v>
       </c>
       <c r="F80" t="n">
-        <v>5.145507964410403</v>
+        <v>5.182244966184287</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.904693573617878</v>
+        <v>-4.943944297537374</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.133874093430183</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.27533559040516</v>
+        <v>-17.3085114858061</v>
       </c>
       <c r="F81" t="n">
-        <v>4.810580673113368</v>
+        <v>4.850250350723798</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.859302559665615</v>
+        <v>-4.895005269515002</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.579096509332998</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.95859669110916</v>
+        <v>-17.99212607868682</v>
       </c>
       <c r="F82" t="n">
-        <v>5.002016325265086</v>
+        <v>5.007646015487028</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.750636446079288</v>
+        <v>-4.788669585834502</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.039691909196754</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.7560488571987</v>
+        <v>-18.77873781802341</v>
       </c>
       <c r="F83" t="n">
-        <v>4.822494668699338</v>
+        <v>4.845982259997395</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.665680492939328</v>
+        <v>-4.707772246575477</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.501713326894304</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.64708480400089</v>
+        <v>-19.66999633397391</v>
       </c>
       <c r="F84" t="n">
-        <v>4.882771630982645</v>
+        <v>4.914009865563004</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.534142126288506</v>
+        <v>-4.566126622130843</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.953636695868222</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.70871345683078</v>
+        <v>-20.73347100150448</v>
       </c>
       <c r="F85" t="n">
-        <v>4.606550225627909</v>
+        <v>4.648681256172583</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.270659531598769</v>
+        <v>-4.30016958220402</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.385058156560953</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.85095141825717</v>
+        <v>-21.87789537750544</v>
       </c>
       <c r="F86" t="n">
-        <v>4.534594929209782</v>
+        <v>4.5679541168505</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.044057954014174</v>
+        <v>-4.065084192377986</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.781354164878298</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.01752797066633</v>
+        <v>-23.03598811767316</v>
       </c>
       <c r="F87" t="n">
-        <v>4.433993674173959</v>
+        <v>4.466619692855541</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.966787182642307</v>
+        <v>-3.984749822141155</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.134522805832523</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.29936915729404</v>
+        <v>-24.32293530240915</v>
       </c>
       <c r="F88" t="n">
-        <v>4.243971990729147</v>
+        <v>4.278588039442671</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.110723960084243</v>
+        <v>-4.13034932204399</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.432029248211051</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.03699268275077</v>
+        <v>-26.0605981047744</v>
       </c>
       <c r="F89" t="n">
-        <v>4.2704708116808</v>
+        <v>4.304196583801087</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.146505223750681</v>
+        <v>-4.155748389556939</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.667098147515965</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.65408846824656</v>
+        <v>-27.66457540282278</v>
       </c>
       <c r="F90" t="n">
-        <v>3.978721935155777</v>
+        <v>4.008127247338293</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.219992319601289</v>
+        <v>-4.238033512917188</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>4.83560658968738</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.2255444860361</v>
+        <v>-29.23364862149513</v>
       </c>
       <c r="F91" t="n">
-        <v>3.625622527514424</v>
+        <v>3.658876976732409</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.180388103505067</v>
+        <v>-4.198167450764132</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>4.933487608165159</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.86831427740452</v>
+        <v>-30.88525571728172</v>
       </c>
       <c r="F92" t="n">
-        <v>3.288862313819547</v>
+        <v>3.318424733636164</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.379770783481714</v>
+        <v>-4.39430323963603</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>4.962677749877365</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.98116320230512</v>
+        <v>-32.98785336905723</v>
       </c>
       <c r="F93" t="n">
-        <v>3.111906748610777</v>
+        <v>3.134242217258762</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.765548579016014</v>
+        <v>-4.773115930058531</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.92063551247513</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.03759739426071</v>
+        <v>-35.05565167987945</v>
       </c>
       <c r="F94" t="n">
-        <v>2.987817902276897</v>
+        <v>3.010755616855601</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.989374588398163</v>
+        <v>-4.996994308652048</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.811775267877199</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.06913002621135</v>
+        <v>-37.09463383214703</v>
       </c>
       <c r="F95" t="n">
-        <v>2.617043885799215</v>
+        <v>2.638462893248279</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.285142801895597</v>
+        <v>-5.282170849150525</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.63575229702498</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.56762582361782</v>
+        <v>-39.59799996621063</v>
       </c>
       <c r="F96" t="n">
-        <v>2.29418769772225</v>
+        <v>2.304373509333113</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.639774008969431</v>
+        <v>-5.635715395088496</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.400958916684331</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.73777975805665</v>
+        <v>-41.74994250739662</v>
       </c>
       <c r="F97" t="n">
-        <v>2.042265606441757</v>
+        <v>2.052477602658304</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.16677847525743</v>
+        <v>-6.166228598538077</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>4.106573417406039</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.09203765505583</v>
+        <v>-44.11468733897202</v>
       </c>
       <c r="F98" t="n">
-        <v>1.450493517995739</v>
+        <v>1.461831452256674</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.414681229565513</v>
+        <v>-6.399153758395226</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.775541365519554</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.29434628527395</v>
+        <v>-46.31084258685452</v>
       </c>
       <c r="F99" t="n">
-        <v>1.200980410438124</v>
+        <v>1.21149352962003</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.559442822086478</v>
+        <v>-6.56287300543101</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.393673970452077</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.63569517167118</v>
+        <v>-48.64162598485849</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9963869939304704</v>
+        <v>1.026250536712447</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.818539495324237</v>
+        <v>-6.803378608633518</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.017829738555839</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.76712207430419</v>
+        <v>-50.77162582648174</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7915971928801911</v>
+        <v>0.8154251840521326</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.998899059271856</v>
+        <v>-6.972701361285561</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>2.580851529784363</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.33809686024246</v>
+        <v>-53.36315552788152</v>
       </c>
       <c r="F102" t="n">
-        <v>0.310703817200751</v>
+        <v>0.3542750010580153</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.33829082583792</v>
+        <v>-7.319123694477633</v>
       </c>
     </row>
   </sheetData>
